--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_44.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_44.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_9</t>
+          <t>model_1_44_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9950781553974154</v>
+        <v>0.850061041337029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7963098378346333</v>
+        <v>0.6079533040576526</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7548029386015138</v>
+        <v>0.7355896056690034</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9912432379795092</v>
+        <v>0.7784486975943313</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02048730955592053</v>
+        <v>0.3553842155457565</v>
       </c>
       <c r="G2" t="n">
-        <v>1.362077052306763</v>
+        <v>2.621618060975523</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8770556712798876</v>
+        <v>0.9457806491264242</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04799145114109416</v>
+        <v>0.7645227626383524</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3788377068073516</v>
+        <v>0.9995128411163414</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1431338868190218</v>
+        <v>0.596141103721054</v>
       </c>
       <c r="L2" t="n">
-        <v>1.314998054565415</v>
+        <v>0.7958278009695714</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1453881024550275</v>
+        <v>0.6055297301821858</v>
       </c>
       <c r="N2" t="n">
-        <v>137.7758992611571</v>
+        <v>36.06911155491244</v>
       </c>
       <c r="O2" t="n">
-        <v>279.1110718043735</v>
+        <v>73.03369514313826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_8</t>
+          <t>model_1_44_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9950679694416186</v>
+        <v>0.850002748979246</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7962690232162349</v>
+        <v>0.6078960346199049</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7548508611475271</v>
+        <v>0.7350937618923348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9914070692067569</v>
+        <v>0.7772304450444374</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02052970886885743</v>
+        <v>0.3555223796628596</v>
       </c>
       <c r="G3" t="n">
-        <v>1.362349979847927</v>
+        <v>2.622001021969443</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8768842551115072</v>
+        <v>0.9475542535648943</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04709357378420742</v>
+        <v>0.7687266729513268</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3794952539458922</v>
+        <v>0.9929025377052632</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1432819209420973</v>
+        <v>0.5962569745192584</v>
       </c>
       <c r="L3" t="n">
-        <v>1.315649955736411</v>
+        <v>0.795748424141952</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1455384679675616</v>
+        <v>0.6056474258296336</v>
       </c>
       <c r="N3" t="n">
-        <v>137.7717644576373</v>
+        <v>36.06833415816427</v>
       </c>
       <c r="O3" t="n">
-        <v>279.1069370008537</v>
+        <v>73.03291774639008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_7</t>
+          <t>model_1_44_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9950817895782661</v>
+        <v>0.8499398660023614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7962267145506534</v>
+        <v>0.6078360450502591</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7551526593645315</v>
+        <v>0.7346014469745438</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9916667992793984</v>
+        <v>0.776011037442057</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02047218218110829</v>
+        <v>0.3556714244315483</v>
       </c>
       <c r="G4" t="n">
-        <v>1.362632898089484</v>
+        <v>2.622402172497891</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8758047403885485</v>
+        <v>0.9493152354797735</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04567012262019521</v>
+        <v>0.7729345690856817</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3790446787534698</v>
+        <v>0.9863946403256574</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1430810336176961</v>
+        <v>0.5963819450918583</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31476546699097</v>
+        <v>0.7956627962585346</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1453344168686148</v>
+        <v>0.6057743645638272</v>
       </c>
       <c r="N4" t="n">
-        <v>137.7773765622523</v>
+        <v>36.06749587880912</v>
       </c>
       <c r="O4" t="n">
-        <v>279.1125491054686</v>
+        <v>73.03207946703493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_6</t>
+          <t>model_1_44_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9950853686088396</v>
+        <v>0.8498723504954453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7961814955512611</v>
+        <v>0.607773603743333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7553661479596196</v>
+        <v>0.7341127970338028</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9918898300291421</v>
+        <v>0.7747904065185668</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02045728437079761</v>
+        <v>0.3558314491887994</v>
       </c>
       <c r="G5" t="n">
-        <v>1.362935277746635</v>
+        <v>2.622819717804822</v>
       </c>
       <c r="H5" t="n">
-        <v>0.875041104062698</v>
+        <v>0.9510631079842524</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0444478021661002</v>
+        <v>0.7771466866207878</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3789699497938293</v>
+        <v>0.9799910507672607</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1430289633983188</v>
+        <v>0.5965160929839189</v>
       </c>
       <c r="L5" t="n">
-        <v>1.314536409034268</v>
+        <v>0.7955708602491169</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1452815265953334</v>
+        <v>0.6059106251510891</v>
       </c>
       <c r="N5" t="n">
-        <v>137.7788325119358</v>
+        <v>36.06659623516251</v>
       </c>
       <c r="O5" t="n">
-        <v>279.1140050551522</v>
+        <v>73.03117982338833</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_5</t>
+          <t>model_1_44_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9950960315248303</v>
+        <v>0.849800393502278</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7961408924734338</v>
+        <v>0.6077084554168761</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7556325721283677</v>
+        <v>0.7336276406792357</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9921443735113723</v>
+        <v>0.7735687295907407</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02041289969832012</v>
+        <v>0.3560020011240526</v>
       </c>
       <c r="G6" t="n">
-        <v>1.363206790715026</v>
+        <v>2.623255364963819</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8740881202592476</v>
+        <v>0.9527984841335574</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04305277612083936</v>
+        <v>0.7813624136771012</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3782340259574176</v>
+        <v>0.9736862057937418</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1428737194109544</v>
+        <v>0.5966590325504614</v>
       </c>
       <c r="L6" t="n">
-        <v>1.313853982410862</v>
+        <v>0.7954728762584211</v>
       </c>
       <c r="M6" t="n">
-        <v>0.145123837670355</v>
+        <v>0.6060558158729175</v>
       </c>
       <c r="N6" t="n">
-        <v>137.7831764796411</v>
+        <v>36.06563785402185</v>
       </c>
       <c r="O6" t="n">
-        <v>279.1183490228575</v>
+        <v>73.03022144224768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_4</t>
+          <t>model_1_44_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9951016156642212</v>
+        <v>0.8497240375153914</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7960913837682762</v>
+        <v>0.6076409879109697</v>
       </c>
       <c r="D7" t="n">
-        <v>0.755874795695636</v>
+        <v>0.7331460505023975</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9923856670967764</v>
+        <v>0.772345925205312</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02038965556902659</v>
+        <v>0.356182979521821</v>
       </c>
       <c r="G7" t="n">
-        <v>1.363537855654381</v>
+        <v>2.623706520486475</v>
       </c>
       <c r="H7" t="n">
-        <v>0.873221700604058</v>
+        <v>0.9545211042719046</v>
       </c>
       <c r="I7" t="n">
-        <v>0.041730366160687</v>
+        <v>0.7855820313311768</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3776077276252061</v>
+        <v>0.9674834828473762</v>
       </c>
       <c r="K7" t="n">
-        <v>0.142792351227321</v>
+        <v>0.596810673096436</v>
       </c>
       <c r="L7" t="n">
-        <v>1.313496597489845</v>
+        <v>0.7953689021486181</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1450411880191677</v>
+        <v>0.6062098446059062</v>
       </c>
       <c r="N7" t="n">
-        <v>137.7854551733803</v>
+        <v>36.0646213855111</v>
       </c>
       <c r="O7" t="n">
-        <v>279.1206277165967</v>
+        <v>73.02920497373692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_3</t>
+          <t>model_1_44_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9951069512873256</v>
+        <v>0.8496433987152386</v>
       </c>
       <c r="C8" t="n">
-        <v>0.79603513686936</v>
+        <v>0.6075715054690044</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7561457250154411</v>
+        <v>0.7326680281377504</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9926292675287137</v>
+        <v>0.7711220097317653</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0203674458954099</v>
+        <v>0.3563741090120507</v>
       </c>
       <c r="G8" t="n">
-        <v>1.363913978926427</v>
+        <v>2.624171149895834</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8722526021364998</v>
+        <v>0.9562309625529178</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0403953135236607</v>
+        <v>0.7898054830956731</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3769340529355168</v>
+        <v>0.9613920400016712</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1427145609088642</v>
+        <v>0.5969707773518321</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31315511761116</v>
+        <v>0.7952590961228782</v>
       </c>
       <c r="M8" t="n">
-        <v>0.144962172580957</v>
+        <v>0.6063724703432792</v>
       </c>
       <c r="N8" t="n">
-        <v>137.7876348844017</v>
+        <v>36.06354846378798</v>
       </c>
       <c r="O8" t="n">
-        <v>279.1228074276181</v>
+        <v>73.0281320520138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_2</t>
+          <t>model_1_44_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9951019669545776</v>
+        <v>0.8495585309492378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7959797124656683</v>
+        <v>0.607499811248942</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7563662233942324</v>
+        <v>0.7321935624697808</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9928398832247888</v>
+        <v>0.7698969453977444</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0203881933135392</v>
+        <v>0.356575261965988</v>
       </c>
       <c r="G9" t="n">
-        <v>1.364284602169119</v>
+        <v>2.624650569475512</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8714638922207936</v>
+        <v>0.9579280987361448</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03924103379514002</v>
+        <v>0.7940328993143347</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3764849302365189</v>
+        <v>0.9554055110375927</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1427872309190818</v>
+        <v>0.5971392316419915</v>
       </c>
       <c r="L9" t="n">
-        <v>1.313474114907031</v>
+        <v>0.7951435315053451</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1450359870711923</v>
+        <v>0.6065435776201161</v>
       </c>
       <c r="N9" t="n">
-        <v>137.7855986096359</v>
+        <v>36.06241989580005</v>
       </c>
       <c r="O9" t="n">
-        <v>279.1207711528522</v>
+        <v>73.02700348402587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_1</t>
+          <t>model_1_44_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9950939844912104</v>
+        <v>0.8494694256187117</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7959131913977527</v>
+        <v>0.6074263110996019</v>
       </c>
       <c r="D10" t="n">
-        <v>0.756566395443239</v>
+        <v>0.7317225745896228</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9930438504175225</v>
+        <v>0.7686707820120797</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02042142053041175</v>
+        <v>0.3567864587641539</v>
       </c>
       <c r="G10" t="n">
-        <v>1.364729428856572</v>
+        <v>2.625142065312587</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8707478884081394</v>
+        <v>0.9596127950740243</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03812319120200321</v>
+        <v>0.7982641081083047</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3762486309661534</v>
+        <v>0.9495316348854311</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1429035357519601</v>
+        <v>0.5973160459623983</v>
       </c>
       <c r="L10" t="n">
-        <v>1.313984992562531</v>
+        <v>0.795022196587182</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1451541235889262</v>
+        <v>0.6067231765893198</v>
       </c>
       <c r="N10" t="n">
-        <v>137.7823418060462</v>
+        <v>36.06123566178132</v>
       </c>
       <c r="O10" t="n">
-        <v>279.1175143492626</v>
+        <v>73.02581925000715</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_44_0</t>
+          <t>model_1_44_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9950795273155744</v>
+        <v>0.8493762978561955</v>
       </c>
       <c r="C11" t="n">
-        <v>0.795845437346235</v>
+        <v>0.6073508351948637</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7567057170851645</v>
+        <v>0.7312546948055076</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9932279024691048</v>
+        <v>0.7674435698864475</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02048159890995772</v>
+        <v>0.3570071895009983</v>
       </c>
       <c r="G11" t="n">
-        <v>1.36518250051105</v>
+        <v>2.625646773035106</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8702495429733046</v>
+        <v>0.9612863739325754</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0371144935783544</v>
+        <v>0.8024989358635204</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3762595112919943</v>
+        <v>0.9437664826834703</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1431139368124493</v>
+        <v>0.5975007861927868</v>
       </c>
       <c r="L11" t="n">
-        <v>1.314910251803241</v>
+        <v>0.7948953843148194</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1453678382557942</v>
+        <v>0.6069108262936644</v>
       </c>
       <c r="N11" t="n">
-        <v>137.776456820166</v>
+        <v>36.05999871749404</v>
       </c>
       <c r="O11" t="n">
-        <v>279.1116293633824</v>
+        <v>73.02458230571986</v>
       </c>
     </row>
   </sheetData>
